--- a/balance.xlsx
+++ b/balance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="163">
   <si>
     <t>TURRET</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -594,10 +594,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>memory-t</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>membrane</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -615,6 +611,62 @@
   </si>
   <si>
     <t>golgi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell-bmemory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turret-inflammation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turret-steroid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fibrocyte</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fibroblast</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fibro-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fibro-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>atp-tower</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Respirating Cell</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell-breath</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>oxygen-comb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene-small</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene-large</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +674,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,8 +723,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +752,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -728,7 +793,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,8 +809,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,11 +832,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="나쁨" xfId="5" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="셀 확인" xfId="4" builtinId="23"/>
     <cellStyle name="연결된 셀" xfId="3" builtinId="24"/>
@@ -1072,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1152,31 +1224,33 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>3.3333330000000001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G29" si="0">1/$B4*60</f>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:G15" si="0">1/$B4*60</f>
         <v>18.000001800000177</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>800</v>
       </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1264,6 +1338,9 @@
       <c r="H7">
         <v>400</v>
       </c>
+      <c r="J7" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1459,6 +1536,9 @@
       <c r="H14">
         <v>2480</v>
       </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1504,7 +1584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1518,10 +1598,10 @@
         <v>360</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -1541,7 +1621,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1561,7 +1641,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -1581,7 +1661,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1598,7 +1678,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1615,7 +1695,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1628,8 +1708,11 @@
       <c r="E23" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
@@ -1653,7 +1736,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -1669,25 +1752,36 @@
       <c r="F25" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="J25" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>108</v>
       </c>
-      <c r="D26">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7">
         <v>160</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1704,7 +1798,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -1721,7 +1815,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -1738,7 +1832,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1754,42 +1848,55 @@
       <c r="F30" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="J30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>3.6</v>
       </c>
-      <c r="D31">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7">
         <v>40</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="7">
         <v>54</v>
       </c>
-      <c r="D32">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7">
         <v>360</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>94</v>
       </c>
@@ -1815,7 +1922,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -1841,8 +1948,14 @@
         <f>(G34/60)*(100/C34)</f>
         <v>4.0160642570281126</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>154</v>
+      </c>
+      <c r="K34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -1868,31 +1981,40 @@
         <f>(G35/60)*(100/C35)</f>
         <v>14.367816091954023</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="J35" t="s">
+        <v>155</v>
+      </c>
+      <c r="K35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>210</v>
       </c>
       <c r="C36" s="6">
         <v>1.5</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>160</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -1908,8 +2030,11 @@
       <c r="F37" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>101</v>
       </c>
@@ -1922,10 +2047,10 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>103</v>
       </c>
@@ -1944,10 +2069,10 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -1961,7 +2086,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -1977,8 +2102,11 @@
       <c r="E41" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -1994,8 +2122,11 @@
       <c r="E42" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -2006,7 +2137,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>107</v>
       </c>
@@ -2017,7 +2148,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>108</v>
       </c>
@@ -2034,10 +2165,10 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -2048,7 +2179,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -2059,10 +2190,10 @@
         <v>4000</v>
       </c>
       <c r="J47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>130</v>
       </c>

--- a/balance.xlsx
+++ b/balance.xlsx
@@ -574,99 +574,99 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>turret-comp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turret-anti</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>atp-node-large</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>atp-storage-large</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>core-brain</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>golgi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell-bmemory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turret-inflammation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turret-steroid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fibrocyte</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fibroblast</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fibro-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fibro-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>atp-tower</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Respirating Cell</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell-breath</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>oxygen-comb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene-small</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gene-large</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>core-lymph</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell-storage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>membrane</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>turret-vomit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>turret-comp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>turret-anti</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>atp-node-large</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>atp-storage-large</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>membrane</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell-storage</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>core-lymph</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>core-brain</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>golgi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell-bmemory</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>turret-inflammation</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>turret-steroid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fibrocyte</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fibroblast</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fibro-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fibro-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>atp-tower</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Respirating Cell</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cell-breath</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>oxygen-comb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleep</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gene-small</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>gene-large</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1146,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1309,7 +1309,7 @@
         <v>1120</v>
       </c>
       <c r="J6" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>400</v>
       </c>
       <c r="J7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1423,7 +1423,7 @@
         <v>1200</v>
       </c>
       <c r="J10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1507,7 +1507,7 @@
         <v>1305</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1537,7 +1537,7 @@
         <v>2480</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1598,7 +1598,7 @@
         <v>360</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1675,7 +1675,7 @@
         <v>74</v>
       </c>
       <c r="J21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1692,7 +1692,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1709,7 +1709,7 @@
         <v>76</v>
       </c>
       <c r="J23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1753,10 +1753,10 @@
         <v>81</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1849,7 +1849,7 @@
         <v>90</v>
       </c>
       <c r="J30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1949,10 +1949,10 @@
         <v>4.0160642570281126</v>
       </c>
       <c r="J34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1982,10 +1982,10 @@
         <v>14.367816091954023</v>
       </c>
       <c r="J35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2011,7 +2011,7 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2031,7 +2031,7 @@
         <v>119</v>
       </c>
       <c r="J37" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2047,7 +2047,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2069,7 +2069,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2103,7 +2103,7 @@
         <v>124</v>
       </c>
       <c r="J41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2123,7 +2123,7 @@
         <v>127</v>
       </c>
       <c r="J42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2165,7 +2165,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2190,7 +2190,7 @@
         <v>4000</v>
       </c>
       <c r="J47" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
